--- a/01_Guide/05_HBase3/BigDataガイド課程概要_05.xlsx
+++ b/01_Guide/05_HBase3/BigDataガイド課程概要_05.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>終り</t>
     <rPh sb="0" eb="1">
@@ -140,9 +140,6 @@
     <t>topic4</t>
   </si>
   <si>
-    <t>topic5</t>
-  </si>
-  <si>
     <t>topic6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,11 +154,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>复习第一部分：Hadoop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>复习第二部分：HBase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>复习第一部分：Hadoop Map-Reduce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row Key Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Schema Design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hbase API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cluster &amp; HA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Backup &amp; Restore</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,9 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -632,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -654,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -682,7 +701,9 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -691,109 +712,108 @@
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>0.46875</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>0.46875</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
